--- a/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/6.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/6.xlsx
@@ -49,15 +49,12 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -109,7 +106,7 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
@@ -199,7 +196,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -241,7 +238,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -283,7 +280,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -322,7 +319,7 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
